--- a/Assets/Resources/DataFiles/Talk/Data_Text.xlsx
+++ b/Assets/Resources/DataFiles/Talk/Data_Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\청강대\졸업작품\InnerPiece\Assets\Resources\DataFiles\Talk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inpea\Desktop\Proto_MK1\Assets\Resources\DataFiles\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540DF216-73D6-429D-A370-FE6869E6834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF593AE-178E-4F21-B80D-1AA12F3B243C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Talk_Stage_00" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>설명(CSV 출력시 제외해주세요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>이피아는 단발이었던 시절이 있습니다…전 단발이 더 좋은데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕, '이피아' ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 빛의 정령 '루미에'야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲이 어둠에 물들고 있어..\n숲의 관리자인 너의 도움이 필요해..!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,19 +469,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="34.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,31 +492,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>900</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>901</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>902</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>903</v>
       </c>
@@ -527,15 +539,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="64.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="2" max="2" width="64.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -555,7 +567,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -564,7 +576,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>102</v>
       </c>
@@ -573,7 +585,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>103</v>
       </c>
@@ -597,15 +609,15 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="64.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -616,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>200</v>
       </c>
@@ -625,7 +637,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>201</v>
       </c>
@@ -634,7 +646,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>202</v>
       </c>
@@ -643,7 +655,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>203</v>
       </c>
@@ -666,15 +678,15 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="64.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="2" max="2" width="64.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -685,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>300</v>
       </c>
@@ -694,7 +706,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>301</v>
       </c>
@@ -703,7 +715,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>302</v>
       </c>
@@ -712,7 +724,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>303</v>
       </c>
@@ -735,15 +747,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="64.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="2" max="2" width="64.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>400</v>
       </c>
@@ -763,7 +775,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>401</v>
       </c>
@@ -772,7 +784,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>402</v>
       </c>
@@ -781,7 +793,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>403</v>
       </c>
@@ -804,15 +816,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="64.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="2" max="2" width="64.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -823,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>800</v>
       </c>
@@ -832,14 +844,14 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>801</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>802</v>
       </c>
@@ -848,7 +860,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>803</v>
       </c>
